--- a/Doc/DevelopNote.xlsx
+++ b/Doc/DevelopNote.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11020" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11020"/>
   </bookViews>
   <sheets>
-    <sheet name="Requirement" sheetId="1" r:id="rId1"/>
-    <sheet name="Tasks" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="User Requirement" sheetId="4" r:id="rId1"/>
+    <sheet name="System Requirement" sheetId="1" r:id="rId2"/>
+    <sheet name="Tasks" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t>Trade Calendar</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +104,98 @@
   </si>
   <si>
     <t>Log and Assert mechanism</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DailyData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StockList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intergration of finance related resource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Easy access of support resource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Incremental update should be supported</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resource can be udpated automatically</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integrate a back test frame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Depends on open source project.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Link to helpful page or trim page instead of write UI by myself</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>One-key batch download finance report</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offline storage and browse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resource smart update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can also updated by manual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>High scalability and auto error detection / recover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The resource collector should be plug-in design</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The resource collector can make validation itself</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The the collector not worked the system can auto switch to another one</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tips</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Restoration factor is MUST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fetch and organize history event</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Support History and Note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can add event to a day or note to stock by manual</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -149,9 +242,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -447,10 +546,129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="79.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -521,12 +739,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -536,20 +754,23 @@
     <col min="3" max="3" width="77.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="B2" t="s">
         <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="B3" t="s">
         <v>19</v>
       </c>
@@ -557,7 +778,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="B4" t="s">
         <v>19</v>
       </c>
@@ -565,12 +786,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="B10" t="s">
         <v>19</v>
       </c>
@@ -578,15 +799,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="B11" t="s">
         <v>19</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="B12" t="s">
         <v>19</v>
       </c>
@@ -594,7 +818,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="12.5" customHeight="1">
+    <row r="13" spans="1:4" ht="12.5" customHeight="1">
       <c r="B13" t="s">
         <v>2</v>
       </c>
@@ -602,12 +826,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
       <c r="B14" t="s">
         <v>4</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -617,7 +851,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Doc/DevelopNote.xlsx
+++ b/Doc/DevelopNote.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11020"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11020" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="User Requirement" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <t>Trade Calendar</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -196,6 +196,10 @@
   </si>
   <si>
     <t>Can add event to a day or note to stock by manual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name table</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -548,7 +552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -741,10 +745,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -839,9 +843,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="C22" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/DevelopNote.xlsx
+++ b/Doc/DevelopNote.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11020" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="User Requirement" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>Trade Calendar</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -201,24 +201,33 @@
   <si>
     <t>Name table</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AliasTable</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>AliasTable UI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -258,15 +267,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -308,7 +325,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -340,9 +357,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -374,6 +409,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -549,16 +602,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="79.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="79.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -668,17 +721,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.54296875" customWidth="1"/>
-    <col min="2" max="2" width="48.36328125" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" customWidth="1"/>
+    <col min="2" max="2" width="48.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -744,18 +797,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23.26953125" customWidth="1"/>
-    <col min="2" max="2" width="9.453125" customWidth="1"/>
-    <col min="3" max="3" width="77.26953125" customWidth="1"/>
+    <col min="1" max="1" width="23.21875" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" customWidth="1"/>
+    <col min="3" max="3" width="77.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -790,6 +843,22 @@
         <v>21</v>
       </c>
     </row>
+    <row r="6" spans="1:4">
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+    </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>0</v>
@@ -822,7 +891,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="12.5" customHeight="1">
+    <row r="13" spans="1:4" ht="12.45" customHeight="1">
       <c r="B13" t="s">
         <v>2</v>
       </c>
@@ -861,12 +930,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
